--- a/biology/Botanique/Square_Albert-Besnard/Square_Albert-Besnard.xlsx
+++ b/biology/Botanique/Square_Albert-Besnard/Square_Albert-Besnard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Albert-Besnard est un square du 17e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'Albert Besnard (1849-1934), peintre et graveur français.
 </t>
@@ -543,7 +557,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par la place du Maréchal-Juin.
 Il est desservi par la ligne 3 à la station Pereire.
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square expose le buste d'Albert Besnard, réalisé par son fils Philippe Besnard. La famille Besnard vivait à proximité, dans un hôtel particulier rue Guillaume-Tell.
 </t>
